--- a/Bott.xlsx
+++ b/Bott.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farinam\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A529592-B23E-45FF-A17D-9A00330DC42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27540" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+  <si>
+    <t>Who is the PM of a certain project in TGO</t>
+  </si>
+  <si>
+    <t>Please see "Contacts" section in Communications Hub</t>
+  </si>
+  <si>
+    <t>I submitted a request for an addition to the questionnaire</t>
+  </si>
+  <si>
+    <t>Please see "Research Summaries" in Communications Hub (under "Questionnaire Update")</t>
+  </si>
+  <si>
+    <t>Where are the Final Monthly Topic questions</t>
+  </si>
+  <si>
+    <t>Please see relevant sharepoint (either CS Sharepoint or "Monthly Topics" in Communications Hub - under "Questionnaire Update")</t>
+  </si>
+  <si>
+    <t>What is the link to ask for changes to the questionnaire</t>
+  </si>
+  <si>
+    <t>Please see "Questionnaire Suggestion Form" in Communications Hub (under "Questionnaire Update")</t>
+  </si>
+  <si>
+    <t>Questionnaire pages</t>
+  </si>
+  <si>
+    <t>Please ask the relevant project managers</t>
+  </si>
+  <si>
+    <t>standard changes</t>
+  </si>
+  <si>
+    <t>When is an item available for clients in Europa once it has been added</t>
+  </si>
+  <si>
+    <t>Please refer to Europa updating document in Communications Hub</t>
+  </si>
+  <si>
+    <t>Why does it take a long time to see data that was requested for Spain</t>
+  </si>
+  <si>
+    <t>How is Time Spent on Media (Internet) created</t>
+  </si>
+  <si>
+    <t>For each of the 3 devices, you need to calculate:</t>
+  </si>
+  <si>
+    <t>Desktop: ((Average Weekday * 5) + (Average weekend * 2)) +</t>
+  </si>
+  <si>
+    <t>Tablet: ((Average Weekday * 5) + (Average weekend * 2))+</t>
+  </si>
+  <si>
+    <t>Smartphones: ((Average Weekday * 5) + (Average weekend * 2))</t>
+  </si>
+  <si>
+    <t>What is the methodology of X project?</t>
+  </si>
+  <si>
+    <t>Please refer to the introduction volume on the Communications Hub (under "Data Release")</t>
+  </si>
+  <si>
+    <t>What monthly topic was asked in X month?</t>
+  </si>
+  <si>
+    <t>How does the fusion work on GB?</t>
+  </si>
+  <si>
+    <t>Does a client need to do factoring / how do we ascribe part-period data?</t>
+  </si>
+  <si>
+    <t>What PAMCo database is X GB weighted to?</t>
+  </si>
+  <si>
+    <t>Can we add these websites to Clickstream?</t>
+  </si>
+  <si>
+    <t>Please refer to webspec/suppressions first to see if already on TGI (on Communications Hub)</t>
+  </si>
+  <si>
+    <t>Can we add these apps to Clickstream?</t>
+  </si>
+  <si>
+    <t>What is the minimum sample required for clickstream sites/apps to be released?</t>
+  </si>
+  <si>
+    <t>20 sample (raw meter data)</t>
+  </si>
+  <si>
+    <t>What is the definition of X Segmentation?</t>
+  </si>
+  <si>
+    <t>Please refer to "Segmentations and Summaries" in Communications Hub (under "Continuous Improvement")</t>
+  </si>
+  <si>
+    <t>What goes into X aggregation?</t>
+  </si>
+  <si>
+    <t>Please refer to webspec/hub</t>
+  </si>
+  <si>
+    <t>What is the difference between Europa and Europa Net</t>
+  </si>
+  <si>
+    <t>Refer to TGI Net intro volume (under "Data Release" in Communications Hub)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +147,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,12 +177,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +548,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>